--- a/target/classes/documents/MB.xlsx
+++ b/target/classes/documents/MB.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="40">
   <si>
     <t>new</t>
   </si>
